--- a/SE2018春-G18-WBS.xlsx
+++ b/SE2018春-G18-WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>WBS编码</t>
   </si>
@@ -123,7 +123,7 @@
     <t>word修订</t>
   </si>
   <si>
-    <t>SE2018春-G18-项目计划V2.0.doc</t>
+    <t>SE2018春-G18-项目计划V1.3.doc</t>
   </si>
   <si>
     <t>C-2</t>
@@ -132,7 +132,7 @@
     <t>PPT修订</t>
   </si>
   <si>
-    <t>SE2018春-G18-项目计划V2.0.pptx</t>
+    <t>SE2018春-G18-项目计划V1.2.pptx</t>
   </si>
   <si>
     <t>C-3</t>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>邓晰，陈伟峰</t>
+  </si>
+  <si>
+    <t>SE2018春-G18-可行性研究报告V1.0.docx</t>
   </si>
   <si>
     <t>D-2</t>
@@ -401,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -415,14 +418,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -437,24 +470,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,8 +500,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,74 +555,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -568,73 +571,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,109 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +784,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,22 +843,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,26 +859,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,137 +897,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,16 +1050,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,7 +1389,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1404,7 +1401,7 @@
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.1296296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.8888888888889" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1426,10 +1423,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1440,7 +1437,7 @@
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1450,18 +1447,18 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1473,9 +1470,9 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -1484,7 +1481,7 @@
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1494,8 +1491,8 @@
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1504,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1513,11 +1510,11 @@
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1526,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1538,8 +1535,8 @@
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1548,7 +1545,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1560,8 +1557,8 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
@@ -1570,7 +1567,7 @@
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1580,8 +1577,8 @@
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1590,7 +1587,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1602,8 +1599,8 @@
       <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1611,8 +1608,8 @@
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1624,8 +1621,8 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
@@ -1634,7 +1631,7 @@
       <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1644,16 +1641,18 @@
       <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
@@ -1664,38 +1663,38 @@
       <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8" t="s">
         <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -1704,77 +1703,77 @@
       <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="8" t="s">
-        <v>52</v>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="8" t="s">
-        <v>54</v>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1782,60 +1781,60 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="8" t="s">
         <v>63</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>11</v>
@@ -1844,178 +1843,178 @@
       <c r="F21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="8" t="s">
-        <v>65</v>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8" t="s">
-        <v>67</v>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
+      <c r="C24" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="8" t="s">
-        <v>76</v>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="8" t="s">
-        <v>78</v>
+      <c r="C28" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="8" t="s">
         <v>82</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>11</v>
@@ -2024,78 +2023,78 @@
       <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8" t="s">
-        <v>84</v>
+      <c r="C31" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="8" t="s">
-        <v>86</v>
+      <c r="C32" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="8" t="s">
         <v>90</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
@@ -2104,98 +2103,98 @@
       <c r="F34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="8" t="s">
-        <v>92</v>
+      <c r="C35" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="8" t="s">
-        <v>94</v>
+      <c r="C36" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="8" t="s">
-        <v>96</v>
+      <c r="C37" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="8" t="s">
         <v>100</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>16</v>
@@ -2204,78 +2203,78 @@
       <c r="F39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="8" t="s">
-        <v>102</v>
+      <c r="C40" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="8" t="s">
-        <v>104</v>
+      <c r="C41" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="8" t="s">
         <v>108</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>11</v>
@@ -2284,77 +2283,77 @@
       <c r="F43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="8" t="s">
-        <v>110</v>
+      <c r="C44" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="8" t="s">
-        <v>112</v>
+      <c r="C45" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2362,60 +2361,60 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="8" t="s">
         <v>120</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>11</v>
@@ -2424,68 +2423,68 @@
       <c r="F50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="8" t="s">
-        <v>122</v>
+      <c r="C51" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="8" t="s">
-        <v>124</v>
+      <c r="C52" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/SE2018春-G18-WBS.xlsx
+++ b/SE2018春-G18-WBS.xlsx
@@ -404,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -415,51 +415,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,9 +433,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,9 +502,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,10 +548,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,45 +561,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -571,19 +571,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,163 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,15 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -800,41 +791,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,6 +833,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -885,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,133 +897,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
